--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\demo\hello-world-ts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\capaStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792E257F-9D74-437C-A300-71B0DFC70A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427D0137-5BD0-46E5-80C2-9B342F86C504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="180">
   <si>
     <t>route_name</t>
   </si>
@@ -51,36 +51,12 @@
     <t>Consortium</t>
   </si>
   <si>
-    <t>AE1</t>
-  </si>
-  <si>
     <t>SHANGHAI</t>
   </si>
   <si>
-    <t>LONDON GATEWAY</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t>AE2</t>
-  </si>
-  <si>
-    <t>NINGBO</t>
-  </si>
-  <si>
     <t>ROTTERDAM</t>
   </si>
   <si>
-    <t>AE3</t>
-  </si>
-  <si>
-    <t>AE5</t>
-  </si>
-  <si>
-    <t>QINGDAO</t>
-  </si>
-  <si>
     <t>AEU1</t>
   </si>
   <si>
@@ -99,9 +75,6 @@
     <t>AEU3</t>
   </si>
   <si>
-    <t>TIANJIN</t>
-  </si>
-  <si>
     <t>AEU5</t>
   </si>
   <si>
@@ -117,57 +90,6 @@
     <t>AEU9</t>
   </si>
   <si>
-    <t>FP1</t>
-  </si>
-  <si>
-    <t>SHIMIZU</t>
-  </si>
-  <si>
-    <t>PA+MSC</t>
-  </si>
-  <si>
-    <t>FP2</t>
-  </si>
-  <si>
-    <t>TOKYO</t>
-  </si>
-  <si>
-    <t>ANTWERP</t>
-  </si>
-  <si>
-    <t>FE3</t>
-  </si>
-  <si>
-    <t>SOUTHAMPTON</t>
-  </si>
-  <si>
-    <t>FE4</t>
-  </si>
-  <si>
-    <t>ALGECIRAS</t>
-  </si>
-  <si>
-    <t>FE5</t>
-  </si>
-  <si>
-    <t>FE6</t>
-  </si>
-  <si>
-    <t>BUSAN</t>
-  </si>
-  <si>
-    <t>BREMERHAVEN</t>
-  </si>
-  <si>
-    <t>Albatross</t>
-  </si>
-  <si>
-    <t>GDANSK</t>
-  </si>
-  <si>
-    <t>Britannia</t>
-  </si>
-  <si>
     <t>船名</t>
   </si>
   <si>
@@ -649,13 +571,17 @@
   </si>
   <si>
     <t>COSCO KAOHSIUNG</t>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,8 +650,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,19 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,16 +741,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -838,14 +750,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1327,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C12"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1366,355 +1281,144 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>231</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>210</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
-        <v>233</v>
+      <c r="B4" s="9">
+        <v>205</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>207</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>209</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8">
-        <v>234</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="10">
-        <v>210</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B7" s="8">
+        <v>206</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12">
+        <v>211</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10">
-        <v>208</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12">
-        <v>205</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12">
-        <v>207</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10">
-        <v>209</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10">
-        <v>206</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="15">
-        <v>211</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11">
-        <v>235</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11">
-        <v>236</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="11">
-        <v>237</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11">
-        <v>238</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="11">
-        <v>239</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="11">
-        <v>240</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="11">
-        <v>243</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="11">
-        <v>230</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1736,2685 +1440,2973 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="17">
+        <v>25</v>
+      </c>
+      <c r="B2" s="13">
         <v>2019</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="13">
         <v>399.9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="13">
         <v>58.6</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="13">
         <v>25</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="13">
         <v>21237</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>52</v>
+      <c r="G2" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="16">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14">
         <v>2019</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>400</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>59</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>22</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>21237</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>52</v>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="17">
+        <v>30</v>
+      </c>
+      <c r="B6" s="13">
         <v>2019</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>400</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>58.6</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>22</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>21237</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>52</v>
+      <c r="G6" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="16">
+        <v>32</v>
+      </c>
+      <c r="B8" s="14">
         <v>2018</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>400</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>58.6</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>22</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>21237</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>52</v>
+      <c r="G8" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="17">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13">
         <v>2018</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>400</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <v>58.6</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>22</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>21237</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>52</v>
+      <c r="G10" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="16">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14">
         <v>2019</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>399.9</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>58.6</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>22</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <v>21237</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>52</v>
+      <c r="G12" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="17">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13">
         <v>2018</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="13">
         <v>399.8</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
         <v>58.6</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>22.5</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>19663</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>52</v>
+      <c r="G14" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="16">
+        <v>40</v>
+      </c>
+      <c r="B16" s="14">
         <v>2018</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>399.8</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>58.6</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>22.6</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>20119</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>52</v>
+      <c r="G16" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="17">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13">
         <v>2018</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>399.8</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>58.6</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>22.6</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>20119</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>52</v>
+      <c r="G18" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="16">
+        <v>44</v>
+      </c>
+      <c r="B20" s="14">
         <v>2018</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>399.8</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>58.6</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>22.5</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <v>20119</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>52</v>
+      <c r="G20" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="17">
+        <v>46</v>
+      </c>
+      <c r="B22" s="13">
         <v>2018</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="13">
         <v>399.8</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="13">
         <v>58.6</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>22.5</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="13">
         <v>19663</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>52</v>
+      <c r="G22" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="16">
+        <v>48</v>
+      </c>
+      <c r="B24" s="14">
         <v>2019</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>400</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>58.6</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>22.5</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <v>19273</v>
       </c>
-      <c r="G24" s="16" t="s">
-        <v>52</v>
+      <c r="G24" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="17">
+        <v>50</v>
+      </c>
+      <c r="B26" s="13">
         <v>2019</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="13">
         <v>400</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="13">
         <v>58.6</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>22.5</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="13">
         <v>19273</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>52</v>
+      <c r="G26" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="16">
+        <v>52</v>
+      </c>
+      <c r="B28" s="14">
         <v>2018</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>400</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <v>59</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>22.5</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="14">
         <v>19273</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>52</v>
+      <c r="G28" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="17">
+        <v>54</v>
+      </c>
+      <c r="B30" s="13">
         <v>2018</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="13">
         <v>400</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="13">
         <v>58.6</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="13">
         <v>22.5</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="13">
         <v>19273</v>
       </c>
-      <c r="G30" s="17" t="s">
-        <v>52</v>
+      <c r="G30" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="16">
+        <v>56</v>
+      </c>
+      <c r="B32" s="14">
         <v>2018</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <v>400</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <v>58.6</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>22.5</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <v>19273</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>52</v>
+      <c r="G32" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="17">
+        <v>58</v>
+      </c>
+      <c r="B34" s="13">
         <v>2018</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="13">
         <v>400</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="13">
         <v>58.6</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="13">
         <v>22.5</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="13">
         <v>19273</v>
       </c>
-      <c r="G34" s="17" t="s">
-        <v>52</v>
+      <c r="G34" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="16">
+        <v>60</v>
+      </c>
+      <c r="B36" s="14">
         <v>2015</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="14">
         <v>400</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <v>60</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>23.8</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <v>18982</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>52</v>
+      <c r="G36" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="17">
+        <v>62</v>
+      </c>
+      <c r="B38" s="13">
         <v>2015</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="13">
         <v>400</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="13">
         <v>58</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="13">
         <v>23.5</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="13">
         <v>18982</v>
       </c>
-      <c r="G38" s="17" t="s">
-        <v>52</v>
+      <c r="G38" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+        <v>63</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="16">
+        <v>64</v>
+      </c>
+      <c r="B40" s="14">
         <v>2015</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <v>400</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <v>58</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>23.5</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <v>18982</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>52</v>
+      <c r="G40" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="17">
+        <v>66</v>
+      </c>
+      <c r="B42" s="13">
         <v>2014</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="13">
         <v>400</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="13">
         <v>60</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="13">
         <v>23</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="13">
         <v>18982</v>
       </c>
-      <c r="G42" s="17" t="s">
-        <v>52</v>
+      <c r="G42" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="16">
+        <v>68</v>
+      </c>
+      <c r="B44" s="14">
         <v>2014</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <v>400</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <v>59</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>23.5</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="14">
         <v>18982</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>52</v>
+      <c r="G44" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="17">
+        <v>70</v>
+      </c>
+      <c r="B46" s="13">
         <v>2025</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="13">
         <v>366</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="13">
         <v>51</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="13">
         <v>23</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="13">
         <v>16136</v>
       </c>
-      <c r="G46" s="17" t="s">
-        <v>52</v>
+      <c r="G46" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="16">
+        <v>72</v>
+      </c>
+      <c r="B48" s="14">
         <v>2025</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="14">
         <v>366</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="14">
         <v>51</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>23</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>16136</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>52</v>
+      <c r="G48" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="17">
+        <v>74</v>
+      </c>
+      <c r="B50" s="13">
         <v>2025</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="13">
         <v>366</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="13">
         <v>51</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="13">
         <v>23</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="13">
         <v>16136</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>52</v>
+      <c r="G50" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="16">
+        <v>76</v>
+      </c>
+      <c r="B52" s="14">
         <v>2017</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="14">
         <v>366</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>51.2</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="14">
         <v>25</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <v>14566</v>
       </c>
-      <c r="G52" s="16" t="s">
-        <v>52</v>
+      <c r="G52" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="17">
+        <v>78</v>
+      </c>
+      <c r="B54" s="13">
         <v>2018</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="13">
         <v>366</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="13">
         <v>51.2</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="13">
         <v>25</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="13">
         <v>14566</v>
       </c>
-      <c r="G54" s="17" t="s">
-        <v>52</v>
+      <c r="G54" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" ht="39.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="16">
+        <v>80</v>
+      </c>
+      <c r="B56" s="14">
         <v>2017</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="14">
         <v>366</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="14">
         <v>51.2</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>22.4</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="14">
         <v>14566</v>
       </c>
-      <c r="G56" s="16" t="s">
-        <v>52</v>
+      <c r="G56" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
     </row>
     <row r="58" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="17">
+        <v>82</v>
+      </c>
+      <c r="B58" s="13">
         <v>2018</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="13">
         <v>366</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="13">
         <v>51.2</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="13">
         <v>22.5</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="13">
         <v>14566</v>
       </c>
-      <c r="G58" s="17" t="s">
-        <v>52</v>
+      <c r="G58" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+        <v>83</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="16">
+        <v>84</v>
+      </c>
+      <c r="B60" s="14">
         <v>2018</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="14">
         <v>366</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <v>51.2</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>25</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <v>14566</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>52</v>
+      <c r="G60" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="17">
+        <v>86</v>
+      </c>
+      <c r="B62" s="13">
         <v>2023</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="13">
         <v>335.9</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="13">
         <v>51</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="13">
         <v>23.6</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="13">
         <v>14100</v>
       </c>
-      <c r="G62" s="17" t="s">
-        <v>52</v>
+      <c r="G62" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="16">
+        <v>88</v>
+      </c>
+      <c r="B64" s="14">
         <v>2024</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="14">
         <v>335.9</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="14">
         <v>51</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="14">
         <v>23.6</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="14">
         <v>14100</v>
       </c>
-      <c r="G64" s="16" t="s">
-        <v>52</v>
+      <c r="G64" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="17">
+        <v>90</v>
+      </c>
+      <c r="B66" s="13">
         <v>2024</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="13">
         <v>335.9</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="13">
         <v>51</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="13">
         <v>23.6</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="13">
         <v>14100</v>
       </c>
-      <c r="G66" s="17" t="s">
-        <v>52</v>
+      <c r="G66" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="16">
+        <v>92</v>
+      </c>
+      <c r="B68" s="14">
         <v>2024</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="14">
         <v>335.9</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="14">
         <v>51</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="14">
         <v>23.6</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="14">
         <v>14100</v>
       </c>
-      <c r="G68" s="16" t="s">
-        <v>52</v>
+      <c r="G68" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="17">
+        <v>94</v>
+      </c>
+      <c r="B70" s="13">
         <v>2024</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="13">
         <v>335.9</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="13">
         <v>51</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="13">
         <v>23.6</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="13">
         <v>14100</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>52</v>
+      <c r="G70" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="16">
+        <v>96</v>
+      </c>
+      <c r="B72" s="14">
         <v>2024</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="14">
         <v>335.9</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="14">
         <v>51</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="14">
         <v>23.6</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="14">
         <v>14100</v>
       </c>
-      <c r="G72" s="16" t="s">
-        <v>52</v>
+      <c r="G72" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="17">
+        <v>98</v>
+      </c>
+      <c r="B74" s="13">
         <v>2011</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="13">
         <v>366</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="13">
         <v>52</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="13">
         <v>24</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="13">
         <v>14074</v>
       </c>
-      <c r="G74" s="17" t="s">
-        <v>52</v>
+      <c r="G74" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="16">
+        <v>100</v>
+      </c>
+      <c r="B76" s="14">
         <v>2012</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="14">
         <v>366</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="14">
         <v>52</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="14">
         <v>24</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="14">
         <v>14074</v>
       </c>
-      <c r="G76" s="16" t="s">
-        <v>52</v>
+      <c r="G76" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
+        <v>101</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
     </row>
     <row r="78" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="17">
+        <v>102</v>
+      </c>
+      <c r="B78" s="13">
         <v>2011</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="13">
         <v>366</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="13">
         <v>52</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="13">
         <v>24</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="13">
         <v>14074</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>52</v>
+      <c r="G78" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B80" s="16">
+        <v>104</v>
+      </c>
+      <c r="B80" s="14">
         <v>2011</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="14">
         <v>366</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="14">
         <v>52</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="14">
         <v>24</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="14">
         <v>14074</v>
       </c>
-      <c r="G80" s="16" t="s">
-        <v>52</v>
+      <c r="G80" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" s="17">
+        <v>106</v>
+      </c>
+      <c r="B82" s="13">
         <v>2011</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="13">
         <v>366</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="13">
         <v>52</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="13">
         <v>24</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="13">
         <v>14074</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>52</v>
+      <c r="G82" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="16">
+        <v>108</v>
+      </c>
+      <c r="B84" s="14">
         <v>2012</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="14">
         <v>366</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="14">
         <v>52</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="14">
         <v>24</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="14">
         <v>14074</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>52</v>
+      <c r="G84" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="17">
+        <v>110</v>
+      </c>
+      <c r="B86" s="13">
         <v>2011</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="13">
         <v>366</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D86" s="13">
         <v>52</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E86" s="13">
         <v>24</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="13">
         <v>14074</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>52</v>
+      <c r="G86" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B88" s="16">
+        <v>112</v>
+      </c>
+      <c r="B88" s="14">
         <v>2011</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="14">
         <v>366</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="14">
         <v>52</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="14">
         <v>24.2</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="14">
         <v>14074</v>
       </c>
-      <c r="G88" s="16" t="s">
-        <v>52</v>
+      <c r="G88" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+        <v>113</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
     </row>
     <row r="90" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="17">
+        <v>114</v>
+      </c>
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="13">
         <v>366</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="13">
         <v>48.2</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="13">
         <v>23</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="13">
         <v>13800</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>52</v>
+      <c r="G90" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92" s="16">
+        <v>116</v>
+      </c>
+      <c r="B92" s="14">
         <v>2018</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="14">
         <v>366</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="14">
         <v>48.2</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="14">
         <v>23</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="14">
         <v>13800</v>
       </c>
-      <c r="G92" s="16" t="s">
-        <v>52</v>
+      <c r="G92" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
+        <v>117</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="17">
+        <v>118</v>
+      </c>
+      <c r="B94" s="13">
         <v>2019</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="13">
         <v>366</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="13">
         <v>48.2</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="13">
         <v>24</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="13">
         <v>13800</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>52</v>
+      <c r="G94" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="16">
+        <v>120</v>
+      </c>
+      <c r="B96" s="14">
         <v>2019</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="14">
         <v>366</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="14">
         <v>48</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="14">
         <v>23</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="14">
         <v>13800</v>
       </c>
-      <c r="G96" s="16" t="s">
-        <v>52</v>
+      <c r="G96" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
+        <v>121</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="17">
+        <v>122</v>
+      </c>
+      <c r="B98" s="13">
         <v>2018</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="13">
         <v>366</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98" s="13">
         <v>48.2</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="13">
         <v>23</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="13">
         <v>13800</v>
       </c>
-      <c r="G98" s="17" t="s">
-        <v>52</v>
+      <c r="G98" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+        <v>123</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B100" s="16">
+        <v>124</v>
+      </c>
+      <c r="B100" s="14">
         <v>2019</v>
       </c>
-      <c r="C100" s="16">
+      <c r="C100" s="14">
         <v>366</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="14">
         <v>48.2</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="14">
         <v>23</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="14">
         <v>13800</v>
       </c>
-      <c r="G100" s="16" t="s">
-        <v>52</v>
+      <c r="G100" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
     </row>
     <row r="102" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102" s="17">
+        <v>126</v>
+      </c>
+      <c r="B102" s="13">
         <v>2018</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="13">
         <v>366</v>
       </c>
-      <c r="D102" s="17">
+      <c r="D102" s="13">
         <v>48.2</v>
       </c>
-      <c r="E102" s="17">
+      <c r="E102" s="13">
         <v>23</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="13">
         <v>13800</v>
       </c>
-      <c r="G102" s="17" t="s">
-        <v>52</v>
+      <c r="G102" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" s="16">
+        <v>128</v>
+      </c>
+      <c r="B104" s="14">
         <v>2019</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="14">
         <v>366</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="14">
         <v>48.2</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="14">
         <v>23</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="14">
         <v>13800</v>
       </c>
-      <c r="G104" s="16" t="s">
-        <v>52</v>
+      <c r="G104" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
     </row>
     <row r="106" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B106" s="17">
+        <v>130</v>
+      </c>
+      <c r="B106" s="13">
         <v>2013</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="13">
         <v>365.9</v>
       </c>
-      <c r="D106" s="17">
+      <c r="D106" s="13">
         <v>51.2</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="13">
         <v>24.3</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="13">
         <v>13386</v>
       </c>
-      <c r="G106" s="17" t="s">
-        <v>52</v>
+      <c r="G106" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
+        <v>131</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B108" s="16">
+        <v>132</v>
+      </c>
+      <c r="B108" s="14">
         <v>2014</v>
       </c>
-      <c r="C108" s="16">
+      <c r="C108" s="14">
         <v>365.9</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="14">
         <v>51.2</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="14">
         <v>24.3</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="14">
         <v>13386</v>
       </c>
-      <c r="G108" s="16" t="s">
-        <v>52</v>
+      <c r="G108" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
+        <v>133</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="17">
+        <v>134</v>
+      </c>
+      <c r="B110" s="13">
         <v>2013</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="13">
         <v>365.9</v>
       </c>
-      <c r="D110" s="17">
+      <c r="D110" s="13">
         <v>51.2</v>
       </c>
-      <c r="E110" s="17">
+      <c r="E110" s="13">
         <v>24.3</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="13">
         <v>13386</v>
       </c>
-      <c r="G110" s="17" t="s">
-        <v>52</v>
+      <c r="G110" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112" s="16">
+        <v>136</v>
+      </c>
+      <c r="B112" s="14">
         <v>2014</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C112" s="14">
         <v>365.9</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="14">
         <v>51.2</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="14">
         <v>24.3</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="14">
         <v>13386</v>
       </c>
-      <c r="G112" s="16" t="s">
-        <v>52</v>
+      <c r="G112" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
+        <v>137</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
     </row>
     <row r="114" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="17">
+        <v>138</v>
+      </c>
+      <c r="B114" s="13">
         <v>2013</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="13">
         <v>365.9</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="13">
         <v>51.2</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="13">
         <v>24.3</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="13">
         <v>13386</v>
       </c>
-      <c r="G114" s="17" t="s">
-        <v>52</v>
+      <c r="G114" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B116" s="16">
+        <v>140</v>
+      </c>
+      <c r="B116" s="14">
         <v>2014</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="14">
         <v>365.9</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="14">
         <v>51.2</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="14">
         <v>24.3</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="14">
         <v>13386</v>
       </c>
-      <c r="G116" s="16" t="s">
-        <v>52</v>
+      <c r="G116" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B118" s="17">
+        <v>142</v>
+      </c>
+      <c r="B118" s="13">
         <v>2013</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="13">
         <v>365.9</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="13">
         <v>51.2</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="13">
         <v>23</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="13">
         <v>13386</v>
       </c>
-      <c r="G118" s="17" t="s">
-        <v>52</v>
+      <c r="G118" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
+        <v>143</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B120" s="16">
+        <v>144</v>
+      </c>
+      <c r="B120" s="14">
         <v>2014</v>
       </c>
-      <c r="C120" s="16">
+      <c r="C120" s="14">
         <v>365.9</v>
       </c>
-      <c r="D120" s="16">
+      <c r="D120" s="14">
         <v>51.2</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="14">
         <v>24.3</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="14">
         <v>13386</v>
       </c>
-      <c r="G120" s="16" t="s">
-        <v>52</v>
+      <c r="G120" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
     </row>
     <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B122" s="17">
+        <v>146</v>
+      </c>
+      <c r="B122" s="13">
         <v>2008</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="13">
         <v>349.1</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D122" s="13">
         <v>45.6</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="13">
         <v>24.9</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="13">
         <v>10062</v>
       </c>
-      <c r="G122" s="17" t="s">
-        <v>173</v>
+      <c r="G122" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B124" s="16">
+        <v>149</v>
+      </c>
+      <c r="B124" s="14">
         <v>2007</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="14">
         <v>349.1</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="14">
         <v>45.6</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="14">
         <v>24.9</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="14">
         <v>10062</v>
       </c>
-      <c r="G124" s="16" t="s">
-        <v>173</v>
+      <c r="G124" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
+        <v>150</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
     </row>
     <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B126" s="17">
+        <v>151</v>
+      </c>
+      <c r="B126" s="13">
         <v>2008</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="13">
         <v>349.1</v>
       </c>
-      <c r="D126" s="17">
+      <c r="D126" s="13">
         <v>45.6</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="13">
         <v>24.9</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="13">
         <v>10062</v>
       </c>
-      <c r="G126" s="17" t="s">
-        <v>173</v>
+      <c r="G126" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B128" s="16">
+        <v>153</v>
+      </c>
+      <c r="B128" s="14">
         <v>2008</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C128" s="14">
         <v>349.1</v>
       </c>
-      <c r="D128" s="16">
+      <c r="D128" s="14">
         <v>45.6</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="14">
         <v>25.8</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="14">
         <v>10062</v>
       </c>
-      <c r="G128" s="16" t="s">
-        <v>173</v>
+      <c r="G128" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
+        <v>154</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
     </row>
     <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B130" s="17">
+        <v>155</v>
+      </c>
+      <c r="B130" s="13">
         <v>2014</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="13">
         <v>335</v>
       </c>
-      <c r="D130" s="17">
+      <c r="D130" s="13">
         <v>48</v>
       </c>
-      <c r="E130" s="17">
+      <c r="E130" s="13">
         <v>23.5</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="13">
         <v>10036</v>
       </c>
-      <c r="G130" s="17" t="s">
-        <v>52</v>
+      <c r="G130" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
+        <v>156</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B132" s="16">
+        <v>157</v>
+      </c>
+      <c r="B132" s="14">
         <v>2014</v>
       </c>
-      <c r="C132" s="16">
+      <c r="C132" s="14">
         <v>335</v>
       </c>
-      <c r="D132" s="16">
+      <c r="D132" s="14">
         <v>49</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="14">
         <v>23.5</v>
       </c>
-      <c r="F132" s="16">
+      <c r="F132" s="14">
         <v>10036</v>
       </c>
-      <c r="G132" s="16" t="s">
-        <v>52</v>
+      <c r="G132" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+        <v>158</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
     </row>
     <row r="134" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B134" s="17">
+        <v>159</v>
+      </c>
+      <c r="B134" s="13">
         <v>2014</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="13">
         <v>335</v>
       </c>
-      <c r="D134" s="17">
+      <c r="D134" s="13">
         <v>49</v>
       </c>
-      <c r="E134" s="17">
+      <c r="E134" s="13">
         <v>23.5</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="13">
         <v>10036</v>
       </c>
-      <c r="G134" s="17" t="s">
-        <v>52</v>
+      <c r="G134" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
+        <v>160</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B136" s="16">
+        <v>161</v>
+      </c>
+      <c r="B136" s="14">
         <v>2014</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="14">
         <v>335</v>
       </c>
-      <c r="D136" s="16">
+      <c r="D136" s="14">
         <v>49</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="14">
         <v>23.5</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="14">
         <v>10036</v>
       </c>
-      <c r="G136" s="16" t="s">
-        <v>52</v>
+      <c r="G136" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
+        <v>162</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
     </row>
     <row r="138" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B138" s="17">
+        <v>163</v>
+      </c>
+      <c r="B138" s="13">
         <v>2014</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="13">
         <v>335</v>
       </c>
-      <c r="D138" s="17">
+      <c r="D138" s="13">
         <v>49</v>
       </c>
-      <c r="E138" s="17">
+      <c r="E138" s="13">
         <v>23.5</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="13">
         <v>10036</v>
       </c>
-      <c r="G138" s="17" t="s">
-        <v>52</v>
+      <c r="G138" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
+        <v>164</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B140" s="16">
+        <v>165</v>
+      </c>
+      <c r="B140" s="14">
         <v>2013</v>
       </c>
-      <c r="C140" s="16">
+      <c r="C140" s="14">
         <v>335</v>
       </c>
-      <c r="D140" s="16">
+      <c r="D140" s="14">
         <v>49</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="14">
         <v>23.5</v>
       </c>
-      <c r="F140" s="16">
+      <c r="F140" s="14">
         <v>10036</v>
       </c>
-      <c r="G140" s="16" t="s">
-        <v>52</v>
+      <c r="G140" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
+        <v>166</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
     </row>
     <row r="142" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B142" s="17">
+        <v>167</v>
+      </c>
+      <c r="B142" s="13">
         <v>2014</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="13">
         <v>335</v>
       </c>
-      <c r="D142" s="17">
+      <c r="D142" s="13">
         <v>49</v>
       </c>
-      <c r="E142" s="17">
+      <c r="E142" s="13">
         <v>23.5</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="13">
         <v>10036</v>
       </c>
-      <c r="G142" s="17" t="s">
-        <v>52</v>
+      <c r="G142" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
+        <v>168</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B144" s="16">
+        <v>169</v>
+      </c>
+      <c r="B144" s="14">
         <v>2014</v>
       </c>
-      <c r="C144" s="16">
+      <c r="C144" s="14">
         <v>335</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D144" s="14">
         <v>48</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="14">
         <v>23.5</v>
       </c>
-      <c r="F144" s="16">
+      <c r="F144" s="14">
         <v>10036</v>
       </c>
-      <c r="G144" s="16" t="s">
-        <v>52</v>
+      <c r="G144" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="39.4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
     </row>
     <row r="146" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B146" s="17">
+        <v>171</v>
+      </c>
+      <c r="B146" s="13">
         <v>2008</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="13">
         <v>348.5</v>
       </c>
-      <c r="D146" s="17">
+      <c r="D146" s="13">
         <v>45.6</v>
       </c>
-      <c r="E146" s="17">
+      <c r="E146" s="13">
         <v>24.9</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="13">
         <v>10020</v>
       </c>
-      <c r="G146" s="17" t="s">
-        <v>52</v>
+      <c r="G146" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B148" s="16">
+        <v>173</v>
+      </c>
+      <c r="B148" s="14">
         <v>2008</v>
       </c>
-      <c r="C148" s="16">
+      <c r="C148" s="14">
         <v>348.5</v>
       </c>
-      <c r="D148" s="16">
+      <c r="D148" s="14">
         <v>45.6</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="14">
         <v>24.9</v>
       </c>
-      <c r="F148" s="16">
+      <c r="F148" s="14">
         <v>10020</v>
       </c>
-      <c r="G148" s="16" t="s">
-        <v>52</v>
+      <c r="G148" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
     </row>
     <row r="150" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B150" s="17">
+        <v>175</v>
+      </c>
+      <c r="B150" s="13">
         <v>2009</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="13">
         <v>348.5</v>
       </c>
-      <c r="D150" s="17">
+      <c r="D150" s="13">
         <v>45.6</v>
       </c>
-      <c r="E150" s="17">
+      <c r="E150" s="13">
         <v>24.9</v>
       </c>
-      <c r="F150" s="17">
+      <c r="F150" s="13">
         <v>10020</v>
       </c>
-      <c r="G150" s="17" t="s">
-        <v>52</v>
+      <c r="G150" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B152" s="16">
+        <v>177</v>
+      </c>
+      <c r="B152" s="14">
         <v>2008</v>
       </c>
-      <c r="C152" s="16">
+      <c r="C152" s="14">
         <v>348.5</v>
       </c>
-      <c r="D152" s="16">
+      <c r="D152" s="14">
         <v>45.6</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="14">
         <v>24.9</v>
       </c>
-      <c r="F152" s="16">
+      <c r="F152" s="14">
         <v>10020</v>
       </c>
-      <c r="G152" s="16" t="s">
-        <v>52</v>
+      <c r="G152" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
+        <v>178</v>
+      </c>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="456">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G146:G147"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="B146:B147"/>
     <mergeCell ref="B148:B149"/>
     <mergeCell ref="B150:B151"/>
@@ -4439,366 +4431,78 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="G146:G147"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
